--- a/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(B)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(B).xlsx
+++ b/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(B)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(B).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,17 +525,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bac
-Baccharis
+          <t>Bac</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Baccharis
 Baccharis halimifolia
 Bacopa
 Backhousia - fam. Myrtacées
-Backhousia citriodora
-Bal
-Ballota
-Ballota nigra -  Ballote noire
-Bam
-Bambousa - fam. Poacées
+Backhousia citriodora</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ba</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ballota
+Ballota nigra -  Ballote noire</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ba</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bam</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bambousa - fam. Poacées
 Bambousa arundinacea - Bambou à feuilles rondes
 Bambusa glaucescens
 Bambusa aurea
@@ -533,67 +618,310 @@
 Bambusa multiplex wang-tsai
 Bambusa tuldoides
 Bambusa vulgaris - Bambou
-Bambusa vulgaris vittata
-Bap
-Baptisia
-Baptisia australis - Faux indigotier
-Bar
-Barbarea - fam. Brassicacées
+Bambusa vulgaris vittata</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ba</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bap</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Baptisia
+Baptisia australis - Faux indigotier</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ba</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bar</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Barbarea - fam. Brassicacées
 Barbarea praecox - Cresson de jardin
 Barbieria
 Barlia - Orchidacées
 Barlia robertiana - Orchis géant
 Bartonia
-Bartonia virginica
-Bas
-Bashania
+Bartonia virginica</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ba</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bas</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bashania
 Bashania fargesii
 Bashania qingchengshanensis
 Bassia
-Bassia scoparia
-Bat
-Batesia
-Bau
-Bauhinia - fam. Fabacées
+Bassia scoparia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ba</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bat</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Batesia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ba</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bau</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bauhinia - fam. Fabacées
 Bauhinia variegata - Arbre à orchidées -
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bea
-Beaucarnea
-Beaucarnea recurvata - Pied d'éléphant
-Bec
-Beckmannia
-Beckmannia syzigachne -  Beckmannie à écailles unies
-Beg
-Begonia - fam. Bégoniacées
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bea</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Beaucarnea
+Beaucarnea recurvata - Pied d'éléphant</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Be</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bec</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Beckmannia
+Beckmannia syzigachne -  Beckmannie à écailles unies</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Be</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Beg</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Begonia - fam. Bégoniacées
 Begonia ambra -  Bégonia ambré
 Begonia athena - Bégonia
 Begonia danica -  Bégonia du danemark
@@ -601,9 +929,43 @@
 Begonia gracilis -  Bégonia gracile
 Begonia semperflorens -  Bégonia des Jardins
 Begonia stara - Bégonia
-Begonia tuberosa -  Bégonia tubéreux
-Bel
-Bellardia
+Begonia tuberosa -  Bégonia tubéreux</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Be</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bel</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Bellardia
 Bellardia trixago - Bellardie
 Bellis - fam. Astéracées
 Bellis annua
@@ -614,12 +976,80 @@
 Bellis rotondifolia
 Bellis sylvestris
 Beloperone - fam. Acanthacées
-Beloperone guttata
-Ben
-Benjeannia
-Benjeannia hirsuta -  Benjeannie hirsute
-Ber
-Berberis - fam. Berbéridacées
+Beloperone guttata</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Be</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Benjeannia
+Benjeannia hirsuta -  Benjeannie hirsute</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Be</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ber</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Berberis - fam. Berbéridacées
 Berberis aetnensis
 Berberis atropurpurea
 Berberis cretica
@@ -635,9 +1065,43 @@
 Bergeranthus longisepalus
 Bergeranthus multiceps
 Bergeranthus scapiger
-Bergeranthus vespertinus
-Bet
-Beta - fam. Chénopodiacées  ou Crucifères
+Bergeranthus vespertinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Be</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bet</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beta - fam. Chénopodiacées  ou Crucifères
 Beta vulgaris -  Betterave potagère, ou « Poirée », « Bette »
 Beta vulgaris cicla - « Bette » ou « Carde »
 Betonica
@@ -676,140 +1140,426 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Bi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bid
-Bidens - fam. Astéracées
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bid</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Bidens - fam. Astéracées
 Bidens frondosa - Chanvre d'eau
 Bidens discoidea
 Bidens eatonii
-Bidens heterodoxa
-Bif
-Bifora - fam. Apiacées
-Bifora radians - Bifora rayonnant
-Bis
-Biscutella - fam. Brassicacées
+Bidens heterodoxa</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Bi</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bif</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Bifora - fam. Apiacées
+Bifora radians - Bifora rayonnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Bi</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bis</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Biscutella - fam. Brassicacées
 Biscutella auriculata - Lunetière à oreillettes
 Biscutella levigata
 Biscutella neustriaca - Lunetière de Neustrie
 Biserrula
 Biserrula pelecinus - Biserrule
 Bismarckia - fam. Arécacées (palmier)
-Bismarckia nobilis
-Bit
-Bituminaria - fam. Fabacées
-Bituminaria bituminosa - Psoralée bitumineuse
-Bix
-Bixa - fam. Bixacées
+Bismarckia nobilis</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Bi</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bit</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Bituminaria - fam. Fabacées
+Bituminaria bituminosa - Psoralée bitumineuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Bi</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bix</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bixa - fam. Bixacées
 Bixa orellana - Roucou
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Bl</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bla
-Blanchetiodendron
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Bla</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Blanchetiodendron
 Blackstonia - Gentianacées
-Blackstonia perfoliata - Blackstonie perfoliée
-Ble
-Bletilla - fam. Orchidacées
-Bletilla striata ou Bletilla hyacinthina - Orchidée jacinthe
-Bly
-Blysmopsis
+Blackstonia perfoliata - Blackstonie perfoliée</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Bl</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Ble</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Bletilla - fam. Orchidacées
+Bletilla striata ou Bletilla hyacinthina - Orchidée jacinthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Bl</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Bly</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blysmopsis
 Blysmopsis rufa
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Bo</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boc
-Bocconia - fam. Papavéracée
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Boc</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Bocconia - fam. Papavéracée
 Bocconia cordata japonica - Bocconia
 Bocoa
 Boerhaavia
-Boerhaavia repens
-Bor
-Borinda
+Boerhaavia repens</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bo</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Bor</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Borinda
 Borinda albocerea
 Borago - fam. Borraginacée
-Borago officinalis - Bourrache officinale
-Bot
-Bou
-Bougainvillea - fam. Nyctaginacées, nom Bougainvillée ou Bougainvillier
+Borago officinalis - Bourrache officinale</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Bo</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Bou</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Bougainvillea - fam. Nyctaginacées, nom Bougainvillée ou Bougainvillier
 Bougainvillea buttiana - Bougainvillée
 Bougainvillea glabra -  Bougainvillée glabre
 Bougainvillea hybrides -  Bougainvillée hybride
@@ -819,41 +1569,80 @@
 Boussingaultia cordifolia -  Boussingaultia cordifolia
 Bouteloua - fam. Graminées ou Poacées (herbe)
 Bouteloua gracilis - Grama 
-Bouteloua curtipendula - Grama
-Bow
-Bowdichia
+Bouteloua curtipendula - Grama</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Bo</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Bow</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bowdichia
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Br</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bra
-Bracaria - fam. Graminées ou Poacées (herbe)
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Bra</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Bracaria - fam. Graminées ou Poacées (herbe)
 Bracaria decubens
 Brachychiton
 Brachychiton populneum
@@ -925,18 +1714,120 @@
 Braunsia geminata
 Braunsia nelii
 Braunsia stayneri
-Braunsia vanrensburgii
-Bre
-Breynia - fam. Euphorbiacée (arbuste)
-Breynia disticha - Phylanthus
-Bri
-Brimeura
+Braunsia vanrensburgii</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Br</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Bre</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Breynia - fam. Euphorbiacée (arbuste)
+Breynia disticha - Phylanthus</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Br</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Brimeura
 Brimeura fastigiata - Brimeura
 Briza - fam. Poacées
 Briza gracilis -  Brize gracile
-Briza maxima -  Grande Brize
-Bro
-Brodicea - fam. Liliacées
+Briza maxima -  Grande Brize</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Br</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Bro</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Brodicea - fam. Liliacées
 Brodicea laxa ou Triteleia laxa - Brodifolia
 Brodriguesia
 Bromelia - fam. Broméliacées (plante fruitière)
@@ -956,9 +1847,43 @@
 Bromus tectorum -
 Browallia - fam. Solanacées
 Browallia speciosa - Browallia
-Brownea
-Bru
-Bruchia
+Brownea</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Br</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Bru</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Bruchia
 Bruchia vogesiaca - Bruchie des Vosges
 Brugmansia - fam. Solanacées (arbuste)
 Brugmansia versicolor ou Datura suaveolens ou Datura arborea ou Datura mollis - Brugmansia
@@ -966,9 +1891,43 @@
 Brunnera macrophylla - Myosotis du Caucase
 Brunfelsia
 Brunfelsia pauciflora - Brunfelsia
-Brunfelsia pauciflora calycina - Brunfelsia
-Bry
-Bryonia - fam. Cucurbitacées
+Brunfelsia pauciflora calycina - Brunfelsia</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Br</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Bry</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bryonia - fam. Cucurbitacées
 Bryonia alba - Bryone blanche
 Bryonia dioica - Bryone dioïque
 Bryonia marmorata - Bryone de Corse
@@ -976,44 +1935,151 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Bu</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Buc
-Buchloe - fam. Poacées ou Graminées (herbe)
-Buchloe dactyloides - Buchloé
-Bud
-Buddleja - fam. Scrophulariacées (arbuste)
-Buddleja davidii - Buddleia de David ou arbre aux papillons
-Bug
-Buglossoides - fam. Boraginacées
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Buc</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Buchloe - fam. Poacées ou Graminées (herbe)
+Buchloe dactyloides - Buchloé</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Bu</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Bud</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Buddleja - fam. Scrophulariacées (arbuste)
+Buddleja davidii - Buddleia de David ou arbre aux papillons</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Bu</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Buglossoides - fam. Boraginacées
 Bugossoides arvensis - Grémil des champs
-Buglossoides purpurocaerula - Grémil pourpre bleu
-Bup
-Bupleurum - fam. Apiacées
+Buglossoides purpurocaerula - Grémil pourpre bleu</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Bu</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Bup</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Bupleurum - fam. Apiacées
 Bupleurum baldense
 Bupleurum gerardii
 Bupleurum falcatum - Buplèvre des haies
@@ -1021,9 +2087,43 @@
 Bupleurum rotundifolium - Buplèvre à feuilles rondes
 Bupleurum semicompositum ou Bupleurum glaucum - Buplèvre glauque
 Bupleurum suffruticosum - Buplèvre arborescente
-Bupleurum tenuissimum - Buplèvre grêle
-Bux
-Buxus - fam. Buxacées
+Bupleurum tenuissimum - Buplèvre grêle</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Bu</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Bux</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buxus - fam. Buxacées
 Buxus rotondifolia - Buis
 Buxus sempervirens - Buis
  Portail de l’écologie   Portail de la botanique                    </t>
